--- a/Jogos_do_Dia/2023-02-18_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-02-18_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -283,18 +283,18 @@
     <t>V-Varen Nagasaki</t>
   </si>
   <si>
+    <t>Sydney FC</t>
+  </si>
+  <si>
+    <t>Kashiwa Reysol</t>
+  </si>
+  <si>
+    <t>Sagan Tosu</t>
+  </si>
+  <si>
     <t>Macarthur</t>
   </si>
   <si>
-    <t>Sydney FC</t>
-  </si>
-  <si>
-    <t>Kashiwa Reysol</t>
-  </si>
-  <si>
-    <t>Sagan Tosu</t>
-  </si>
-  <si>
     <t>Melbourne Victory FC</t>
   </si>
   <si>
@@ -847,16 +847,16 @@
     <t>JEF United</t>
   </si>
   <si>
+    <t>Brisbane Roar</t>
+  </si>
+  <si>
+    <t>Gamba Osaka</t>
+  </si>
+  <si>
+    <t>Shonan Bellmare</t>
+  </si>
+  <si>
     <t>Newcastle Jets FC</t>
-  </si>
-  <si>
-    <t>Brisbane Roar</t>
-  </si>
-  <si>
-    <t>Gamba Osaka</t>
-  </si>
-  <si>
-    <t>Shonan Bellmare</t>
   </si>
   <si>
     <t>Melbourne City FC</t>
@@ -1834,10 +1834,10 @@
         <v>2.75</v>
       </c>
       <c r="G2">
-        <v>2.95</v>
+        <v>2.98</v>
       </c>
       <c r="H2">
-        <v>2.65</v>
+        <v>2.69</v>
       </c>
       <c r="I2">
         <v>1.12</v>
@@ -1852,10 +1852,10 @@
         <v>2.4</v>
       </c>
       <c r="M2">
-        <v>2.47</v>
+        <v>2.37</v>
       </c>
       <c r="N2">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="O2">
         <v>1.52</v>
@@ -2146,10 +2146,10 @@
         <v>2.8</v>
       </c>
       <c r="G5">
-        <v>3.15</v>
+        <v>3.26</v>
       </c>
       <c r="H5">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="I5">
         <v>1.04</v>
@@ -2268,10 +2268,10 @@
         <v>2.97</v>
       </c>
       <c r="M6">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="N6">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O6">
         <v>1.44</v>
@@ -2375,7 +2375,7 @@
         <v>2.25</v>
       </c>
       <c r="N7">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O7">
         <v>1.5</v>
@@ -2476,10 +2476,10 @@
         <v>3.3</v>
       </c>
       <c r="M8">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="N8">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="O8">
         <v>1.44</v>
@@ -2580,10 +2580,10 @@
         <v>3.5</v>
       </c>
       <c r="M9">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="N9">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="O9">
         <v>1.4</v>
@@ -2687,7 +2687,7 @@
         <v>2.35</v>
       </c>
       <c r="N10">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="O10">
         <v>1.53</v>
@@ -2788,10 +2788,10 @@
         <v>4.2</v>
       </c>
       <c r="M11">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="N11">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O11">
         <v>1.33</v>
@@ -2871,10 +2871,10 @@
         <v>271</v>
       </c>
       <c r="F12">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="G12">
-        <v>3.5</v>
+        <v>3.62</v>
       </c>
       <c r="H12">
         <v>4.2</v>
@@ -2892,10 +2892,10 @@
         <v>3.4</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="N12">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="O12">
         <v>1.4</v>
@@ -2934,13 +2934,13 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="AD12">
         <v>1.5</v>
@@ -2955,7 +2955,7 @@
         <v>3.3</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -2975,13 +2975,13 @@
         <v>272</v>
       </c>
       <c r="F13">
-        <v>2.85</v>
+        <v>3.12</v>
       </c>
       <c r="G13">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="I13">
         <v>1.1</v>
@@ -3038,13 +3038,13 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AD13">
         <v>1.19</v>
@@ -3079,13 +3079,13 @@
         <v>273</v>
       </c>
       <c r="F14">
-        <v>1.96</v>
+        <v>2.19</v>
       </c>
       <c r="G14">
-        <v>3.35</v>
+        <v>3.34</v>
       </c>
       <c r="H14">
-        <v>3.8</v>
+        <v>3.34</v>
       </c>
       <c r="I14">
         <v>1.07</v>
@@ -3142,13 +3142,13 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>4.35</v>
       </c>
       <c r="AD14">
         <v>1.24</v>
@@ -3183,13 +3183,13 @@
         <v>274</v>
       </c>
       <c r="F15">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="G15">
-        <v>3.2</v>
+        <v>3.22</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>2.89</v>
       </c>
       <c r="I15">
         <v>1.06</v>
@@ -3246,13 +3246,13 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AD15">
         <v>1.44</v>
@@ -3267,7 +3267,7 @@
         <v>3.1</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -3287,13 +3287,13 @@
         <v>275</v>
       </c>
       <c r="F16">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="G16">
-        <v>3.2</v>
+        <v>3.32</v>
       </c>
       <c r="H16">
-        <v>3.05</v>
+        <v>3.28</v>
       </c>
       <c r="I16">
         <v>1.05</v>
@@ -3371,7 +3371,7 @@
         <v>2.8</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="17" spans="1:34">
@@ -3391,13 +3391,13 @@
         <v>276</v>
       </c>
       <c r="F17">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>3.08</v>
       </c>
       <c r="H17">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="I17">
         <v>1.07</v>
@@ -3454,13 +3454,13 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AD17">
         <v>1.4</v>
@@ -3495,102 +3495,102 @@
         <v>277</v>
       </c>
       <c r="F18">
-        <v>2.26</v>
+        <v>1.96</v>
       </c>
       <c r="G18">
-        <v>3.5</v>
+        <v>3.72</v>
       </c>
       <c r="H18">
-        <v>3.11</v>
+        <v>3.68</v>
       </c>
       <c r="I18">
+        <v>1.03</v>
+      </c>
+      <c r="J18">
+        <v>11.5</v>
+      </c>
+      <c r="K18">
+        <v>1.26</v>
+      </c>
+      <c r="L18">
+        <v>3.8</v>
+      </c>
+      <c r="M18">
+        <v>1.7</v>
+      </c>
+      <c r="N18">
+        <v>2.05</v>
+      </c>
+      <c r="O18">
+        <v>1.36</v>
+      </c>
+      <c r="P18">
+        <v>3</v>
+      </c>
+      <c r="Q18">
+        <v>1.75</v>
+      </c>
+      <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="S18">
+        <v>1.25</v>
+      </c>
+      <c r="T18">
+        <v>1.3</v>
+      </c>
+      <c r="U18">
+        <v>1.87</v>
+      </c>
+      <c r="V18">
         <v>1</v>
       </c>
-      <c r="J18">
-        <v>10.5</v>
-      </c>
-      <c r="K18">
-        <v>1.2</v>
-      </c>
-      <c r="L18">
-        <v>3.92</v>
-      </c>
-      <c r="M18">
-        <v>2</v>
-      </c>
-      <c r="N18">
-        <v>1.8</v>
-      </c>
-      <c r="O18">
-        <v>1.33</v>
-      </c>
-      <c r="P18">
-        <v>3.25</v>
-      </c>
-      <c r="Q18">
-        <v>1.62</v>
-      </c>
-      <c r="R18">
-        <v>2.2</v>
-      </c>
-      <c r="S18">
-        <v>1.41</v>
-      </c>
-      <c r="T18">
-        <v>1.29</v>
-      </c>
-      <c r="U18">
-        <v>1.63</v>
-      </c>
-      <c r="V18">
-        <v>1.63</v>
-      </c>
       <c r="W18">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="X18">
+        <v>1.88</v>
+      </c>
+      <c r="Y18">
         <v>1.57</v>
       </c>
-      <c r="Y18">
-        <v>1.43</v>
-      </c>
       <c r="Z18">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="AA18">
-        <v>1.82</v>
+        <v>1.69</v>
       </c>
       <c r="AB18">
         <v>8.5</v>
       </c>
       <c r="AC18">
-        <v>2.32</v>
+        <v>2.62</v>
       </c>
       <c r="AD18">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="AE18">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AF18">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
       <c r="AG18">
-        <v>1.57</v>
+        <v>1.93</v>
       </c>
       <c r="AH18">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="19" spans="1:34">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2">
         <v>44975.125</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
         <v>90</v>
@@ -3599,91 +3599,91 @@
         <v>278</v>
       </c>
       <c r="F19">
-        <v>1.96</v>
+        <v>2.24</v>
       </c>
       <c r="G19">
-        <v>3.72</v>
+        <v>3.42</v>
       </c>
       <c r="H19">
-        <v>3.68</v>
+        <v>3.22</v>
       </c>
       <c r="I19">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="J19">
-        <v>11.5</v>
+        <v>7</v>
       </c>
       <c r="K19">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="L19">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M19">
+        <v>1.91</v>
+      </c>
+      <c r="N19">
+        <v>1.8</v>
+      </c>
+      <c r="O19">
+        <v>1.44</v>
+      </c>
+      <c r="P19">
+        <v>2.63</v>
+      </c>
+      <c r="Q19">
+        <v>1.8</v>
+      </c>
+      <c r="R19">
+        <v>1.95</v>
+      </c>
+      <c r="S19">
+        <v>1.4</v>
+      </c>
+      <c r="T19">
+        <v>1.32</v>
+      </c>
+      <c r="U19">
+        <v>1.45</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>1.8</v>
+      </c>
+      <c r="AB19">
+        <v>7.5</v>
+      </c>
+      <c r="AC19">
+        <v>2.4</v>
+      </c>
+      <c r="AD19">
+        <v>1.48</v>
+      </c>
+      <c r="AE19">
         <v>1.88</v>
       </c>
-      <c r="N19">
-        <v>1.99</v>
-      </c>
-      <c r="O19">
-        <v>1.36</v>
-      </c>
-      <c r="P19">
-        <v>3</v>
-      </c>
-      <c r="Q19">
-        <v>1.75</v>
-      </c>
-      <c r="R19">
-        <v>2</v>
-      </c>
-      <c r="S19">
-        <v>1.25</v>
-      </c>
-      <c r="T19">
-        <v>1.3</v>
-      </c>
-      <c r="U19">
-        <v>1.87</v>
-      </c>
-      <c r="V19">
-        <v>1</v>
-      </c>
-      <c r="W19">
-        <v>1.14</v>
-      </c>
-      <c r="X19">
-        <v>1.88</v>
-      </c>
-      <c r="Y19">
-        <v>1.57</v>
-      </c>
-      <c r="Z19">
-        <v>3.45</v>
-      </c>
-      <c r="AA19">
-        <v>1.69</v>
-      </c>
-      <c r="AB19">
-        <v>8.5</v>
-      </c>
-      <c r="AC19">
-        <v>2.62</v>
-      </c>
-      <c r="AD19">
-        <v>1.12</v>
-      </c>
-      <c r="AE19">
-        <v>1.26</v>
-      </c>
       <c r="AF19">
-        <v>1.49</v>
+        <v>2.5</v>
       </c>
       <c r="AG19">
-        <v>1.93</v>
+        <v>3.5</v>
       </c>
       <c r="AH19">
-        <v>2.4</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="20" spans="1:34">
@@ -3703,52 +3703,52 @@
         <v>279</v>
       </c>
       <c r="F20">
-        <v>2.24</v>
+        <v>2.38</v>
       </c>
       <c r="G20">
-        <v>3.42</v>
+        <v>3.26</v>
       </c>
       <c r="H20">
-        <v>3.22</v>
+        <v>3.11</v>
       </c>
       <c r="I20">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="J20">
         <v>7</v>
       </c>
       <c r="K20">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="L20">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="M20">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N20">
-        <v>1.86</v>
+        <v>1.57</v>
       </c>
       <c r="O20">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P20">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q20">
+        <v>1.95</v>
+      </c>
+      <c r="R20">
         <v>1.8</v>
       </c>
-      <c r="R20">
-        <v>1.95</v>
-      </c>
       <c r="S20">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T20">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="U20">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -3766,19 +3766,19 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="AB20">
         <v>7.5</v>
       </c>
       <c r="AC20">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="AD20">
         <v>1.48</v>
       </c>
       <c r="AE20">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AF20">
         <v>2.5</v>
@@ -3792,13 +3792,13 @@
     </row>
     <row r="21" spans="1:34">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2">
-        <v>44975.125</v>
+        <v>44975.16666666666</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
         <v>92</v>
@@ -3807,91 +3807,91 @@
         <v>280</v>
       </c>
       <c r="F21">
-        <v>2.38</v>
+        <v>2.26</v>
       </c>
       <c r="G21">
-        <v>3.26</v>
+        <v>3.5</v>
       </c>
       <c r="H21">
         <v>3.11</v>
       </c>
       <c r="I21">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="K21">
-        <v>1.37</v>
+        <v>1.2</v>
       </c>
       <c r="L21">
-        <v>2.8</v>
+        <v>3.92</v>
       </c>
       <c r="M21">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="N21">
-        <v>1.6</v>
+        <v>1.87</v>
       </c>
       <c r="O21">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="P21">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q21">
+        <v>1.62</v>
+      </c>
+      <c r="R21">
+        <v>2.2</v>
+      </c>
+      <c r="S21">
+        <v>1.41</v>
+      </c>
+      <c r="T21">
+        <v>1.29</v>
+      </c>
+      <c r="U21">
+        <v>1.63</v>
+      </c>
+      <c r="V21">
+        <v>1.63</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>1.57</v>
+      </c>
+      <c r="Y21">
+        <v>1.43</v>
+      </c>
+      <c r="Z21">
+        <v>3</v>
+      </c>
+      <c r="AA21">
+        <v>1.82</v>
+      </c>
+      <c r="AB21">
+        <v>8.5</v>
+      </c>
+      <c r="AC21">
+        <v>2.32</v>
+      </c>
+      <c r="AD21">
+        <v>1.07</v>
+      </c>
+      <c r="AE21">
+        <v>1.17</v>
+      </c>
+      <c r="AF21">
+        <v>1.33</v>
+      </c>
+      <c r="AG21">
+        <v>1.57</v>
+      </c>
+      <c r="AH21">
         <v>1.95</v>
-      </c>
-      <c r="R21">
-        <v>1.8</v>
-      </c>
-      <c r="S21">
-        <v>1.42</v>
-      </c>
-      <c r="T21">
-        <v>1.37</v>
-      </c>
-      <c r="U21">
-        <v>1.37</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>2.1</v>
-      </c>
-      <c r="AB21">
-        <v>7.5</v>
-      </c>
-      <c r="AC21">
-        <v>1.95</v>
-      </c>
-      <c r="AD21">
-        <v>1.48</v>
-      </c>
-      <c r="AE21">
-        <v>1.85</v>
-      </c>
-      <c r="AF21">
-        <v>2.5</v>
-      </c>
-      <c r="AG21">
-        <v>3.5</v>
-      </c>
-      <c r="AH21">
-        <v>5.1</v>
       </c>
     </row>
     <row r="22" spans="1:34">
@@ -3932,10 +3932,10 @@
         <v>3.75</v>
       </c>
       <c r="M22">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="N22">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="O22">
         <v>1.36</v>
@@ -4015,13 +4015,13 @@
         <v>282</v>
       </c>
       <c r="F23">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="G23">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="H23">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I23">
         <v>1.08</v>
@@ -4036,10 +4036,10 @@
         <v>2.75</v>
       </c>
       <c r="M23">
-        <v>2.05</v>
+        <v>1.96</v>
       </c>
       <c r="N23">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="O23">
         <v>1.4</v>
@@ -4223,13 +4223,13 @@
         <v>283</v>
       </c>
       <c r="F25">
-        <v>1.61</v>
+        <v>1.48</v>
       </c>
       <c r="G25">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="H25">
-        <v>5.6</v>
+        <v>5.92</v>
       </c>
       <c r="I25">
         <v>1.07</v>
@@ -4244,10 +4244,10 @@
         <v>3.25</v>
       </c>
       <c r="M25">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="N25">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="O25">
         <v>1.4</v>
@@ -4295,10 +4295,10 @@
         <v>6</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF25">
         <v>1.55</v>
@@ -4327,13 +4327,13 @@
         <v>284</v>
       </c>
       <c r="F26">
-        <v>3.1</v>
+        <v>2.99</v>
       </c>
       <c r="G26">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H26">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="I26">
         <v>1.03</v>
@@ -4348,10 +4348,10 @@
         <v>3.6</v>
       </c>
       <c r="M26">
-        <v>1.8</v>
+        <v>1.61</v>
       </c>
       <c r="N26">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="O26">
         <v>1.33</v>
@@ -4431,13 +4431,13 @@
         <v>285</v>
       </c>
       <c r="F27">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="G27">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H27">
-        <v>4.3</v>
+        <v>3.65</v>
       </c>
       <c r="I27">
         <v>1.08</v>
@@ -4452,10 +4452,10 @@
         <v>3</v>
       </c>
       <c r="M27">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="N27">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="O27">
         <v>1.4</v>
@@ -4535,13 +4535,13 @@
         <v>286</v>
       </c>
       <c r="F28">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="G28">
-        <v>3.64</v>
+        <v>3.25</v>
       </c>
       <c r="H28">
-        <v>2.73</v>
+        <v>2.85</v>
       </c>
       <c r="I28">
         <v>1.04</v>
@@ -4556,10 +4556,10 @@
         <v>3.4</v>
       </c>
       <c r="M28">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="N28">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="O28">
         <v>1.4</v>
@@ -4639,13 +4639,13 @@
         <v>287</v>
       </c>
       <c r="F29">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="G29">
-        <v>3.58</v>
+        <v>3.27</v>
       </c>
       <c r="H29">
-        <v>2.45</v>
+        <v>2.59</v>
       </c>
       <c r="I29">
         <v>1.05</v>
@@ -4660,10 +4660,10 @@
         <v>3.5</v>
       </c>
       <c r="M29">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="N29">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="O29">
         <v>1.39</v>
@@ -4743,13 +4743,13 @@
         <v>288</v>
       </c>
       <c r="F30">
-        <v>3.32</v>
+        <v>2.96</v>
       </c>
       <c r="G30">
-        <v>3.7</v>
+        <v>3.48</v>
       </c>
       <c r="H30">
-        <v>2.07</v>
+        <v>2.27</v>
       </c>
       <c r="I30">
         <v>1.03</v>
@@ -4764,10 +4764,10 @@
         <v>4</v>
       </c>
       <c r="M30">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="N30">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="O30">
         <v>1.3</v>
@@ -4847,13 +4847,13 @@
         <v>289</v>
       </c>
       <c r="F31">
-        <v>4.3</v>
+        <v>4.64</v>
       </c>
       <c r="G31">
-        <v>3.65</v>
+        <v>3.56</v>
       </c>
       <c r="H31">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="I31">
         <v>1.06</v>
@@ -4868,10 +4868,10 @@
         <v>3</v>
       </c>
       <c r="M31">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="N31">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="O31">
         <v>1.4</v>
@@ -4919,7 +4919,7 @@
         <v>1.33</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AE31">
         <v>1.53</v>
@@ -4931,7 +4931,7 @@
         <v>2.35</v>
       </c>
       <c r="AH31">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="32" spans="1:34">
@@ -4951,13 +4951,13 @@
         <v>290</v>
       </c>
       <c r="F32">
-        <v>2.74</v>
+        <v>2.58</v>
       </c>
       <c r="G32">
-        <v>3.24</v>
+        <v>3.25</v>
       </c>
       <c r="H32">
-        <v>2.64</v>
+        <v>2.39</v>
       </c>
       <c r="I32">
         <v>1.08</v>
@@ -4972,10 +4972,10 @@
         <v>2.9</v>
       </c>
       <c r="M32">
-        <v>2.2</v>
+        <v>2.23</v>
       </c>
       <c r="N32">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="O32">
         <v>1.5</v>
@@ -5055,13 +5055,13 @@
         <v>291</v>
       </c>
       <c r="F33">
-        <v>2.19</v>
+        <v>2.1</v>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H33">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I33">
         <v>1.09</v>
@@ -5076,7 +5076,7 @@
         <v>2.48</v>
       </c>
       <c r="M33">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="N33">
         <v>1.53</v>
@@ -5136,10 +5136,10 @@
         <v>2.53</v>
       </c>
       <c r="AG33">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="AH33">
-        <v>0</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="34" spans="1:34">
@@ -5159,13 +5159,13 @@
         <v>292</v>
       </c>
       <c r="F34">
-        <v>5.25</v>
+        <v>4.29</v>
       </c>
       <c r="G34">
-        <v>4.1</v>
+        <v>3.84</v>
       </c>
       <c r="H34">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="I34">
         <v>1.05</v>
@@ -5180,10 +5180,10 @@
         <v>3.7</v>
       </c>
       <c r="M34">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="N34">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="O34">
         <v>1.36</v>
@@ -5263,13 +5263,13 @@
         <v>293</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>3.61</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -5284,10 +5284,10 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -5367,13 +5367,13 @@
         <v>294</v>
       </c>
       <c r="F36">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="G36">
-        <v>4.9</v>
+        <v>3.78</v>
       </c>
       <c r="H36">
-        <v>6.8</v>
+        <v>4.97</v>
       </c>
       <c r="I36">
         <v>1.03</v>
@@ -5388,10 +5388,10 @@
         <v>5.7</v>
       </c>
       <c r="M36">
-        <v>1.59</v>
+        <v>1.68</v>
       </c>
       <c r="N36">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="O36">
         <v>1.25</v>
@@ -5430,16 +5430,16 @@
         <v>3.19</v>
       </c>
       <c r="AA36">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>13.75</v>
       </c>
       <c r="AC36">
-        <v>0</v>
+        <v>3.64</v>
       </c>
       <c r="AD36">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AE36">
         <v>1.22</v>
@@ -5471,13 +5471,13 @@
         <v>295</v>
       </c>
       <c r="F37">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="G37">
-        <v>3.9</v>
+        <v>3.59</v>
       </c>
       <c r="H37">
-        <v>4.5</v>
+        <v>4.78</v>
       </c>
       <c r="I37">
         <v>1.03</v>
@@ -5492,10 +5492,10 @@
         <v>4</v>
       </c>
       <c r="M37">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="N37">
-        <v>1.96</v>
+        <v>2.07</v>
       </c>
       <c r="O37">
         <v>1.3</v>
@@ -5534,13 +5534,13 @@
         <v>3.09</v>
       </c>
       <c r="AA37">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>10.75</v>
       </c>
       <c r="AC37">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="AD37">
         <v>1.21</v>
@@ -5575,13 +5575,13 @@
         <v>296</v>
       </c>
       <c r="F38">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="G38">
-        <v>3.45</v>
+        <v>3.37</v>
       </c>
       <c r="H38">
-        <v>4</v>
+        <v>3.87</v>
       </c>
       <c r="I38">
         <v>1.05</v>
@@ -5599,7 +5599,7 @@
         <v>1.79</v>
       </c>
       <c r="N38">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="O38">
         <v>1.36</v>
@@ -5638,13 +5638,13 @@
         <v>3.27</v>
       </c>
       <c r="AA38">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC38">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AD38">
         <v>1.27</v>
@@ -5679,13 +5679,13 @@
         <v>297</v>
       </c>
       <c r="F39">
-        <v>4.4</v>
+        <v>3.89</v>
       </c>
       <c r="G39">
-        <v>3.9</v>
+        <v>3.59</v>
       </c>
       <c r="H39">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="I39">
         <v>1.02</v>
@@ -5700,7 +5700,7 @@
         <v>4.3</v>
       </c>
       <c r="M39">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="N39">
         <v>2.1</v>
@@ -5742,16 +5742,16 @@
         <v>3.2</v>
       </c>
       <c r="AA39">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC39">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AD39">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE39">
         <v>1.26</v>
@@ -5783,13 +5783,13 @@
         <v>298</v>
       </c>
       <c r="F40">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="G40">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="H40">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I40">
         <v>1.03</v>
@@ -5807,7 +5807,7 @@
         <v>1.73</v>
       </c>
       <c r="N40">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O40">
         <v>1.3</v>
@@ -5846,13 +5846,13 @@
         <v>3.51</v>
       </c>
       <c r="AA40">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="AC40">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="AD40">
         <v>1.18</v>
@@ -5887,13 +5887,13 @@
         <v>299</v>
       </c>
       <c r="F41">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="G41">
-        <v>3.65</v>
+        <v>3.29</v>
       </c>
       <c r="H41">
-        <v>3.9</v>
+        <v>3.38</v>
       </c>
       <c r="I41">
         <v>1.04</v>
@@ -5908,10 +5908,10 @@
         <v>3.6</v>
       </c>
       <c r="M41">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="N41">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="O41">
         <v>1.35</v>
@@ -5950,13 +5950,13 @@
         <v>3.42</v>
       </c>
       <c r="AA41">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC41">
-        <v>0</v>
+        <v>2.81</v>
       </c>
       <c r="AD41">
         <v>1.18</v>
@@ -5991,13 +5991,13 @@
         <v>300</v>
       </c>
       <c r="F42">
-        <v>1.89</v>
+        <v>1.74</v>
       </c>
       <c r="G42">
-        <v>3.48</v>
+        <v>3.29</v>
       </c>
       <c r="H42">
-        <v>4.96</v>
+        <v>5.23</v>
       </c>
       <c r="I42">
         <v>1.08</v>
@@ -6012,10 +6012,10 @@
         <v>2.75</v>
       </c>
       <c r="M42">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="N42">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="O42">
         <v>1.5</v>
@@ -6095,13 +6095,13 @@
         <v>301</v>
       </c>
       <c r="F43">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="G43">
-        <v>3.45</v>
+        <v>3.56</v>
       </c>
       <c r="H43">
-        <v>4.9</v>
+        <v>4.44</v>
       </c>
       <c r="I43">
         <v>1.08</v>
@@ -6116,10 +6116,10 @@
         <v>2.62</v>
       </c>
       <c r="M43">
-        <v>2.25</v>
+        <v>2.48</v>
       </c>
       <c r="N43">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="O43">
         <v>1.52</v>
@@ -6303,13 +6303,13 @@
         <v>302</v>
       </c>
       <c r="F45">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="G45">
-        <v>3.25</v>
+        <v>3.09</v>
       </c>
       <c r="H45">
-        <v>3.45</v>
+        <v>3.43</v>
       </c>
       <c r="I45">
         <v>1.08</v>
@@ -6324,10 +6324,10 @@
         <v>2.75</v>
       </c>
       <c r="M45">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="N45">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="O45">
         <v>1.44</v>
@@ -6407,13 +6407,13 @@
         <v>303</v>
       </c>
       <c r="F46">
-        <v>2.65</v>
+        <v>2.57</v>
       </c>
       <c r="G46">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="H46">
-        <v>2.75</v>
+        <v>2.66</v>
       </c>
       <c r="I46">
         <v>1.11</v>
@@ -6425,7 +6425,7 @@
         <v>1.5</v>
       </c>
       <c r="L46">
-        <v>2.45</v>
+        <v>2.48</v>
       </c>
       <c r="M46">
         <v>2.45</v>
@@ -6514,10 +6514,10 @@
         <v>2.75</v>
       </c>
       <c r="G47">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="H47">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="I47">
         <v>1.12</v>
@@ -6529,7 +6529,7 @@
         <v>1.5</v>
       </c>
       <c r="L47">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M47">
         <v>2.46</v>
@@ -6615,13 +6615,13 @@
         <v>305</v>
       </c>
       <c r="F48">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="G48">
-        <v>3.1</v>
+        <v>3.03</v>
       </c>
       <c r="H48">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="I48">
         <v>1.08</v>
@@ -6636,10 +6636,10 @@
         <v>2.75</v>
       </c>
       <c r="M48">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N48">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="O48">
         <v>1.5</v>
@@ -6719,13 +6719,13 @@
         <v>306</v>
       </c>
       <c r="F49">
-        <v>1.84</v>
+        <v>1.73</v>
       </c>
       <c r="G49">
-        <v>3.54</v>
+        <v>3.27</v>
       </c>
       <c r="H49">
-        <v>4.38</v>
+        <v>4.33</v>
       </c>
       <c r="I49">
         <v>1.08</v>
@@ -6740,7 +6740,7 @@
         <v>3</v>
       </c>
       <c r="M49">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="N49">
         <v>1.7</v>
@@ -6791,7 +6791,7 @@
         <v>3.3</v>
       </c>
       <c r="AD49">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE49">
         <v>1.34</v>
@@ -6823,13 +6823,13 @@
         <v>307</v>
       </c>
       <c r="F50">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="G50">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="H50">
-        <v>2.55</v>
+        <v>2.43</v>
       </c>
       <c r="I50">
         <v>1.07</v>
@@ -6844,10 +6844,10 @@
         <v>3</v>
       </c>
       <c r="M50">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="N50">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="O50">
         <v>1.4</v>
@@ -6927,13 +6927,13 @@
         <v>308</v>
       </c>
       <c r="F51">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="G51">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H51">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="I51">
         <v>1.06</v>
@@ -6948,7 +6948,7 @@
         <v>3.25</v>
       </c>
       <c r="M51">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="N51">
         <v>1.8</v>
@@ -7135,13 +7135,13 @@
         <v>310</v>
       </c>
       <c r="F53">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="G53">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="H53">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I53">
         <v>1.03</v>
@@ -7156,10 +7156,10 @@
         <v>4.75</v>
       </c>
       <c r="M53">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="N53">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="O53">
         <v>1.25</v>
@@ -7239,13 +7239,13 @@
         <v>311</v>
       </c>
       <c r="F54">
-        <v>2.95</v>
+        <v>2.99</v>
       </c>
       <c r="G54">
-        <v>3.35</v>
+        <v>3.26</v>
       </c>
       <c r="H54">
-        <v>2.27</v>
+        <v>2.11</v>
       </c>
       <c r="I54">
         <v>1.06</v>
@@ -7260,10 +7260,10 @@
         <v>3.3</v>
       </c>
       <c r="M54">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="N54">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="O54">
         <v>1.39</v>
@@ -7343,13 +7343,13 @@
         <v>312</v>
       </c>
       <c r="F55">
-        <v>2.06</v>
+        <v>2.01</v>
       </c>
       <c r="G55">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H55">
-        <v>3.6</v>
+        <v>3.34</v>
       </c>
       <c r="I55">
         <v>1.07</v>
@@ -7364,10 +7364,10 @@
         <v>2.95</v>
       </c>
       <c r="M55">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="N55">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="O55">
         <v>1.45</v>
@@ -7447,13 +7447,13 @@
         <v>313</v>
       </c>
       <c r="F56">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="G56">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H56">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="I56">
         <v>1.06</v>
@@ -7468,10 +7468,10 @@
         <v>3.3</v>
       </c>
       <c r="M56">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="N56">
-        <v>1.94</v>
+        <v>1.8</v>
       </c>
       <c r="O56">
         <v>1.4</v>
@@ -7551,13 +7551,13 @@
         <v>314</v>
       </c>
       <c r="F57">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="G57">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H57">
-        <v>2.49</v>
+        <v>2.4</v>
       </c>
       <c r="I57">
         <v>1.04</v>
@@ -7572,10 +7572,10 @@
         <v>3.75</v>
       </c>
       <c r="M57">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="N57">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="O57">
         <v>1.33</v>
@@ -7655,13 +7655,13 @@
         <v>315</v>
       </c>
       <c r="F58">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="G58">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H58">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I58">
         <v>1.06</v>
@@ -7676,7 +7676,7 @@
         <v>3.3</v>
       </c>
       <c r="M58">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="N58">
         <v>1.83</v>
@@ -7759,13 +7759,13 @@
         <v>316</v>
       </c>
       <c r="F59">
-        <v>3.24</v>
+        <v>3.15</v>
       </c>
       <c r="G59">
-        <v>3.52</v>
+        <v>3.18</v>
       </c>
       <c r="H59">
-        <v>2.36</v>
+        <v>2.29</v>
       </c>
       <c r="I59">
         <v>1.09</v>
@@ -7780,10 +7780,10 @@
         <v>2.83</v>
       </c>
       <c r="M59">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="N59">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="O59">
         <v>1.5</v>
@@ -7863,10 +7863,10 @@
         <v>317</v>
       </c>
       <c r="F60">
-        <v>2.65</v>
+        <v>2.38</v>
       </c>
       <c r="G60">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="H60">
         <v>2.7</v>
@@ -7884,10 +7884,10 @@
         <v>3.2</v>
       </c>
       <c r="M60">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="N60">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="O60">
         <v>1.41</v>
@@ -7935,10 +7935,10 @@
         <v>2.45</v>
       </c>
       <c r="AD60">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AE60">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF60">
         <v>1.61</v>
@@ -7967,13 +7967,13 @@
         <v>318</v>
       </c>
       <c r="F61">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="G61">
-        <v>3.85</v>
+        <v>3.68</v>
       </c>
       <c r="H61">
-        <v>4.3</v>
+        <v>4.38</v>
       </c>
       <c r="I61">
         <v>1.01</v>
@@ -7988,10 +7988,10 @@
         <v>3.75</v>
       </c>
       <c r="M61">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="N61">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O61">
         <v>1.36</v>
@@ -8030,19 +8030,19 @@
         <v>3.19</v>
       </c>
       <c r="AA61">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AB61">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AC61">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="AD61">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AE61">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF61">
         <v>1.53</v>
@@ -8071,13 +8071,13 @@
         <v>319</v>
       </c>
       <c r="F62">
-        <v>3.7</v>
+        <v>3.82</v>
       </c>
       <c r="G62">
-        <v>3.6</v>
+        <v>3.58</v>
       </c>
       <c r="H62">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="I62">
         <v>1.02</v>
@@ -8092,10 +8092,10 @@
         <v>3.5</v>
       </c>
       <c r="M62">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="N62">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O62">
         <v>1.4</v>
@@ -8134,19 +8134,19 @@
         <v>3.31</v>
       </c>
       <c r="AA62">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="AB62">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AC62">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AD62">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE62">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AF62">
         <v>1.68</v>
@@ -8155,7 +8155,7 @@
         <v>2.08</v>
       </c>
       <c r="AH62">
-        <v>0</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="63" spans="1:34">
@@ -8175,13 +8175,13 @@
         <v>320</v>
       </c>
       <c r="F63">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="G63">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="H63">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I63">
         <v>1.02</v>
@@ -8238,19 +8238,19 @@
         <v>3.88</v>
       </c>
       <c r="AA63">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AB63">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC63">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD63">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE63">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF63">
         <v>1.54</v>
@@ -8279,13 +8279,13 @@
         <v>321</v>
       </c>
       <c r="F64">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="G64">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H64">
-        <v>3.5</v>
+        <v>3.59</v>
       </c>
       <c r="I64">
         <v>1.08</v>
@@ -8300,10 +8300,10 @@
         <v>3</v>
       </c>
       <c r="M64">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="N64">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="O64">
         <v>1.45</v>
@@ -8351,7 +8351,7 @@
         <v>3.1</v>
       </c>
       <c r="AD64">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AE64">
         <v>1.8</v>
@@ -8360,10 +8360,10 @@
         <v>2.21</v>
       </c>
       <c r="AG64">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AH64">
-        <v>0</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="65" spans="1:34">
@@ -8383,13 +8383,13 @@
         <v>322</v>
       </c>
       <c r="F65">
-        <v>2.49</v>
+        <v>2.62</v>
       </c>
       <c r="G65">
-        <v>3.25</v>
+        <v>3.34</v>
       </c>
       <c r="H65">
-        <v>2.8</v>
+        <v>2.66</v>
       </c>
       <c r="I65">
         <v>1.02</v>
@@ -8407,7 +8407,7 @@
         <v>1.95</v>
       </c>
       <c r="N65">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="O65">
         <v>1.42</v>
@@ -8487,13 +8487,13 @@
         <v>323</v>
       </c>
       <c r="F66">
-        <v>6.3</v>
+        <v>5.18</v>
       </c>
       <c r="G66">
-        <v>5.95</v>
+        <v>5.72</v>
       </c>
       <c r="H66">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="I66">
         <v>1.02</v>
@@ -8508,10 +8508,10 @@
         <v>7</v>
       </c>
       <c r="M66">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="N66">
-        <v>3.1</v>
+        <v>3.27</v>
       </c>
       <c r="O66">
         <v>1.2</v>
@@ -8591,13 +8591,13 @@
         <v>324</v>
       </c>
       <c r="F67">
-        <v>3.54</v>
+        <v>3.35</v>
       </c>
       <c r="G67">
-        <v>3.84</v>
+        <v>3.68</v>
       </c>
       <c r="H67">
-        <v>2.11</v>
+        <v>2.01</v>
       </c>
       <c r="I67">
         <v>1.04</v>
@@ -8612,10 +8612,10 @@
         <v>4</v>
       </c>
       <c r="M67">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="N67">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
       <c r="O67">
         <v>1.33</v>
@@ -8695,13 +8695,13 @@
         <v>325</v>
       </c>
       <c r="F68">
-        <v>3.24</v>
+        <v>3.12</v>
       </c>
       <c r="G68">
-        <v>3.7</v>
+        <v>3.49</v>
       </c>
       <c r="H68">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="I68">
         <v>1.04</v>
@@ -8716,10 +8716,10 @@
         <v>3.75</v>
       </c>
       <c r="M68">
-        <v>1.96</v>
+        <v>1.85</v>
       </c>
       <c r="N68">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="O68">
         <v>1.36</v>
@@ -8799,13 +8799,13 @@
         <v>326</v>
       </c>
       <c r="F69">
-        <v>2.46</v>
+        <v>2.31</v>
       </c>
       <c r="G69">
-        <v>3.74</v>
+        <v>3.49</v>
       </c>
       <c r="H69">
-        <v>2.93</v>
+        <v>2.87</v>
       </c>
       <c r="I69">
         <v>1.05</v>
@@ -8820,10 +8820,10 @@
         <v>3.6</v>
       </c>
       <c r="M69">
-        <v>1.85</v>
+        <v>1.66</v>
       </c>
       <c r="N69">
-        <v>1.97</v>
+        <v>2.23</v>
       </c>
       <c r="O69">
         <v>1.36</v>
@@ -8903,52 +8903,52 @@
         <v>327</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>3.29</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="M70">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="N70">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P70">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="R70">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S70">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="T70">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U70">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="V70">
         <v>2.64</v>
@@ -9007,52 +9007,52 @@
         <v>328</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>6.53</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>13.87</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>34.5</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="L71">
-        <v>0</v>
+        <v>6.15</v>
       </c>
       <c r="M71">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="N71">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P71">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="R71">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="S71">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="T71">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="U71">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="V71">
         <v>3</v>
@@ -9215,13 +9215,13 @@
         <v>330</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>3.81</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>3.91</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -9236,10 +9236,10 @@
         <v>0</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="N73">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="O73">
         <v>0</v>
@@ -9319,13 +9319,13 @@
         <v>331</v>
       </c>
       <c r="F74">
-        <v>1.15</v>
+        <v>1.06</v>
       </c>
       <c r="G74">
-        <v>8</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="H74">
-        <v>17</v>
+        <v>16.95</v>
       </c>
       <c r="I74">
         <v>1.02</v>
@@ -9340,10 +9340,10 @@
         <v>6.5</v>
       </c>
       <c r="M74">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="N74">
-        <v>2.61</v>
+        <v>3.04</v>
       </c>
       <c r="O74">
         <v>1.2</v>
@@ -9423,13 +9423,13 @@
         <v>332</v>
       </c>
       <c r="F75">
-        <v>2.26</v>
+        <v>1.94</v>
       </c>
       <c r="G75">
-        <v>3.3</v>
+        <v>3.24</v>
       </c>
       <c r="H75">
-        <v>3.24</v>
+        <v>3.45</v>
       </c>
       <c r="I75">
         <v>1.08</v>
@@ -9444,10 +9444,10 @@
         <v>2.75</v>
       </c>
       <c r="M75">
-        <v>2.35</v>
+        <v>2.18</v>
       </c>
       <c r="N75">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="O75">
         <v>1.47</v>
@@ -9527,13 +9527,13 @@
         <v>333</v>
       </c>
       <c r="F76">
-        <v>1.74</v>
+        <v>1.52</v>
       </c>
       <c r="G76">
-        <v>3.78</v>
+        <v>3.79</v>
       </c>
       <c r="H76">
-        <v>4.66</v>
+        <v>5.21</v>
       </c>
       <c r="I76">
         <v>1.05</v>
@@ -9548,10 +9548,10 @@
         <v>3.4</v>
       </c>
       <c r="M76">
-        <v>2.04</v>
+        <v>1.77</v>
       </c>
       <c r="N76">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="O76">
         <v>1.39</v>
@@ -9631,13 +9631,13 @@
         <v>334</v>
       </c>
       <c r="F77">
-        <v>8.199999999999999</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="G77">
-        <v>5.05</v>
+        <v>4.83</v>
       </c>
       <c r="H77">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="I77">
         <v>1.03</v>
@@ -9652,10 +9652,10 @@
         <v>4.3</v>
       </c>
       <c r="M77">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="N77">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="O77">
         <v>1.29</v>
@@ -9735,13 +9735,13 @@
         <v>335</v>
       </c>
       <c r="F78">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="G78">
-        <v>3.42</v>
+        <v>3.12</v>
       </c>
       <c r="H78">
-        <v>4.06</v>
+        <v>3.97</v>
       </c>
       <c r="I78">
         <v>1.08</v>
@@ -9756,10 +9756,10 @@
         <v>2.75</v>
       </c>
       <c r="M78">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="N78">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="O78">
         <v>1.44</v>
@@ -9839,13 +9839,13 @@
         <v>336</v>
       </c>
       <c r="F79">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="G79">
-        <v>5.15</v>
+        <v>4.86</v>
       </c>
       <c r="H79">
-        <v>8.199999999999999</v>
+        <v>7.62</v>
       </c>
       <c r="I79">
         <v>1.03</v>
@@ -9860,10 +9860,10 @@
         <v>4.33</v>
       </c>
       <c r="M79">
-        <v>1.78</v>
+        <v>1.64</v>
       </c>
       <c r="N79">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="O79">
         <v>1.29</v>
@@ -9943,13 +9943,13 @@
         <v>337</v>
       </c>
       <c r="F80">
-        <v>2.75</v>
+        <v>2.58</v>
       </c>
       <c r="G80">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H80">
-        <v>2.42</v>
+        <v>2.39</v>
       </c>
       <c r="I80">
         <v>1.05</v>
@@ -9964,10 +9964,10 @@
         <v>3.25</v>
       </c>
       <c r="M80">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="N80">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="O80">
         <v>1.44</v>
@@ -10047,13 +10047,13 @@
         <v>338</v>
       </c>
       <c r="F81">
-        <v>2.19</v>
+        <v>2.1</v>
       </c>
       <c r="G81">
-        <v>3.45</v>
+        <v>3.34</v>
       </c>
       <c r="H81">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="I81">
         <v>1.03</v>
@@ -10068,10 +10068,10 @@
         <v>3.75</v>
       </c>
       <c r="M81">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="N81">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="O81">
         <v>1.36</v>
@@ -10151,13 +10151,13 @@
         <v>339</v>
       </c>
       <c r="F82">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="G82">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H82">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="I82">
         <v>1.06</v>
@@ -10172,10 +10172,10 @@
         <v>3</v>
       </c>
       <c r="M82">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="N82">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="O82">
         <v>1.44</v>
@@ -10255,13 +10255,13 @@
         <v>340</v>
       </c>
       <c r="F83">
-        <v>3.5</v>
+        <v>3.34</v>
       </c>
       <c r="G83">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="H83">
-        <v>2.09</v>
+        <v>2.01</v>
       </c>
       <c r="I83">
         <v>1.06</v>
@@ -10276,10 +10276,10 @@
         <v>3</v>
       </c>
       <c r="M83">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="N83">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="O83">
         <v>1.44</v>
@@ -10359,13 +10359,13 @@
         <v>341</v>
       </c>
       <c r="F84">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="G84">
-        <v>3.98</v>
+        <v>3.63</v>
       </c>
       <c r="H84">
-        <v>4.74</v>
+        <v>4.78</v>
       </c>
       <c r="I84">
         <v>1.03</v>
@@ -10383,7 +10383,7 @@
         <v>1.72</v>
       </c>
       <c r="N84">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="O84">
         <v>1.33</v>
@@ -10463,13 +10463,13 @@
         <v>342</v>
       </c>
       <c r="F85">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="G85">
-        <v>5.35</v>
+        <v>5.24</v>
       </c>
       <c r="H85">
-        <v>8.6</v>
+        <v>8.57</v>
       </c>
       <c r="I85">
         <v>1.01</v>
@@ -10484,10 +10484,10 @@
         <v>5</v>
       </c>
       <c r="M85">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="N85">
-        <v>2.25</v>
+        <v>2.43</v>
       </c>
       <c r="O85">
         <v>1.29</v>
@@ -10567,13 +10567,13 @@
         <v>343</v>
       </c>
       <c r="F86">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="G86">
-        <v>3.2</v>
+        <v>3.09</v>
       </c>
       <c r="H86">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="I86">
         <v>1.06</v>
@@ -10588,10 +10588,10 @@
         <v>3</v>
       </c>
       <c r="M86">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="N86">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O86">
         <v>1.44</v>
@@ -10671,13 +10671,13 @@
         <v>344</v>
       </c>
       <c r="F87">
-        <v>4</v>
+        <v>3.81</v>
       </c>
       <c r="G87">
-        <v>3.84</v>
+        <v>3.58</v>
       </c>
       <c r="H87">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="I87">
         <v>1.03</v>
@@ -10695,7 +10695,7 @@
         <v>1.68</v>
       </c>
       <c r="N87">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O87">
         <v>1.33</v>
@@ -10775,13 +10775,13 @@
         <v>345</v>
       </c>
       <c r="F88">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="G88">
-        <v>3.84</v>
+        <v>3.64</v>
       </c>
       <c r="H88">
-        <v>4.54</v>
+        <v>4.31</v>
       </c>
       <c r="I88">
         <v>1.05</v>
@@ -10796,10 +10796,10 @@
         <v>3.4</v>
       </c>
       <c r="M88">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="N88">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="O88">
         <v>1.36</v>
@@ -10879,13 +10879,13 @@
         <v>346</v>
       </c>
       <c r="F89">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="G89">
-        <v>3.4</v>
+        <v>3.24</v>
       </c>
       <c r="H89">
-        <v>2.85</v>
+        <v>2.74</v>
       </c>
       <c r="I89">
         <v>1.05</v>
@@ -10900,10 +10900,10 @@
         <v>3.2</v>
       </c>
       <c r="M89">
-        <v>1.99</v>
+        <v>1.94</v>
       </c>
       <c r="N89">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="O89">
         <v>1.4</v>
@@ -10983,13 +10983,13 @@
         <v>347</v>
       </c>
       <c r="F90">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="G90">
-        <v>4.44</v>
+        <v>4.2</v>
       </c>
       <c r="H90">
-        <v>6.15</v>
+        <v>6.68</v>
       </c>
       <c r="I90">
         <v>1.03</v>
@@ -11004,10 +11004,10 @@
         <v>3.7</v>
       </c>
       <c r="M90">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="N90">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="O90">
         <v>1.33</v>
@@ -11087,13 +11087,13 @@
         <v>348</v>
       </c>
       <c r="F91">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="G91">
-        <v>3.4</v>
+        <v>3.24</v>
       </c>
       <c r="H91">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="I91">
         <v>1.06</v>
@@ -11108,10 +11108,10 @@
         <v>3.25</v>
       </c>
       <c r="M91">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="N91">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="O91">
         <v>1.44</v>
@@ -11191,13 +11191,13 @@
         <v>349</v>
       </c>
       <c r="F92">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="G92">
-        <v>3.48</v>
+        <v>3.25</v>
       </c>
       <c r="H92">
-        <v>4.16</v>
+        <v>3.82</v>
       </c>
       <c r="I92">
         <v>1.07</v>
@@ -11212,10 +11212,10 @@
         <v>2.95</v>
       </c>
       <c r="M92">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="N92">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O92">
         <v>1.45</v>
@@ -11295,13 +11295,13 @@
         <v>350</v>
       </c>
       <c r="F93">
-        <v>2.09</v>
+        <v>2.01</v>
       </c>
       <c r="G93">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H93">
-        <v>3.55</v>
+        <v>3.34</v>
       </c>
       <c r="I93">
         <v>1.06</v>
@@ -11316,10 +11316,10 @@
         <v>3</v>
       </c>
       <c r="M93">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="N93">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="O93">
         <v>1.43</v>
@@ -11399,13 +11399,13 @@
         <v>351</v>
       </c>
       <c r="F94">
-        <v>1.89</v>
+        <v>1.74</v>
       </c>
       <c r="G94">
-        <v>3.5</v>
+        <v>3.32</v>
       </c>
       <c r="H94">
-        <v>4.2</v>
+        <v>4.11</v>
       </c>
       <c r="I94">
         <v>1.06</v>
@@ -11423,7 +11423,7 @@
         <v>2.18</v>
       </c>
       <c r="N94">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="O94">
         <v>1.44</v>
@@ -11506,10 +11506,10 @@
         <v>2.08</v>
       </c>
       <c r="G95">
-        <v>3.44</v>
+        <v>3.03</v>
       </c>
       <c r="H95">
-        <v>3.54</v>
+        <v>3.22</v>
       </c>
       <c r="I95">
         <v>1.06</v>
@@ -11524,10 +11524,10 @@
         <v>3.25</v>
       </c>
       <c r="M95">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="N95">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="O95">
         <v>1.42</v>
@@ -11607,13 +11607,13 @@
         <v>353</v>
       </c>
       <c r="F96">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="G96">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="H96">
-        <v>6.15</v>
+        <v>6.18</v>
       </c>
       <c r="I96">
         <v>1.05</v>
@@ -11628,10 +11628,10 @@
         <v>3.25</v>
       </c>
       <c r="M96">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="N96">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="O96">
         <v>1.39</v>
@@ -11711,13 +11711,13 @@
         <v>354</v>
       </c>
       <c r="F97">
-        <v>2.53</v>
+        <v>2.38</v>
       </c>
       <c r="G97">
-        <v>3.16</v>
+        <v>3.14</v>
       </c>
       <c r="H97">
-        <v>2.89</v>
+        <v>2.62</v>
       </c>
       <c r="I97">
         <v>1.08</v>
@@ -11732,10 +11732,10 @@
         <v>2.75</v>
       </c>
       <c r="M97">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="N97">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O97">
         <v>1.48</v>
@@ -11815,13 +11815,13 @@
         <v>355</v>
       </c>
       <c r="F98">
-        <v>2.26</v>
+        <v>2.19</v>
       </c>
       <c r="G98">
-        <v>3.38</v>
+        <v>3.09</v>
       </c>
       <c r="H98">
-        <v>3.17</v>
+        <v>2.95</v>
       </c>
       <c r="I98">
         <v>1.06</v>
@@ -11836,10 +11836,10 @@
         <v>3.25</v>
       </c>
       <c r="M98">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="N98">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="O98">
         <v>1.41</v>
@@ -11919,13 +11919,13 @@
         <v>356</v>
       </c>
       <c r="F99">
-        <v>2.2</v>
+        <v>2.19</v>
       </c>
       <c r="G99">
-        <v>3.25</v>
+        <v>3.09</v>
       </c>
       <c r="H99">
-        <v>3.25</v>
+        <v>2.95</v>
       </c>
       <c r="I99">
         <v>1.07</v>
@@ -11940,10 +11940,10 @@
         <v>2.85</v>
       </c>
       <c r="M99">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="N99">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="O99">
         <v>1.44</v>
@@ -12023,13 +12023,13 @@
         <v>357</v>
       </c>
       <c r="F100">
-        <v>1.94</v>
+        <v>1.81</v>
       </c>
       <c r="G100">
-        <v>3.2</v>
+        <v>3.09</v>
       </c>
       <c r="H100">
-        <v>4.2</v>
+        <v>4.12</v>
       </c>
       <c r="I100">
         <v>1.07</v>
@@ -12044,10 +12044,10 @@
         <v>3.25</v>
       </c>
       <c r="M100">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="N100">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="O100">
         <v>1.44</v>
@@ -12127,13 +12127,13 @@
         <v>358</v>
       </c>
       <c r="F101">
-        <v>2.33</v>
+        <v>2.29</v>
       </c>
       <c r="G101">
-        <v>3.35</v>
+        <v>3.24</v>
       </c>
       <c r="H101">
-        <v>2.9</v>
+        <v>2.67</v>
       </c>
       <c r="I101">
         <v>1.07</v>
@@ -12148,10 +12148,10 @@
         <v>2.9</v>
       </c>
       <c r="M101">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="N101">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="O101">
         <v>1.5</v>
@@ -12231,13 +12231,13 @@
         <v>359</v>
       </c>
       <c r="F102">
-        <v>2.29</v>
+        <v>2.19</v>
       </c>
       <c r="G102">
-        <v>3.24</v>
+        <v>3.09</v>
       </c>
       <c r="H102">
-        <v>3.24</v>
+        <v>2.95</v>
       </c>
       <c r="I102">
         <v>1.1</v>
@@ -12252,10 +12252,10 @@
         <v>2.75</v>
       </c>
       <c r="M102">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="N102">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="O102">
         <v>1.44</v>
@@ -12335,13 +12335,13 @@
         <v>360</v>
       </c>
       <c r="F103">
-        <v>2.28</v>
+        <v>2.39</v>
       </c>
       <c r="G103">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H103">
-        <v>3.2</v>
+        <v>2.58</v>
       </c>
       <c r="I103">
         <v>1.06</v>
@@ -12356,10 +12356,10 @@
         <v>3</v>
       </c>
       <c r="M103">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="N103">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O103">
         <v>1.44</v>
@@ -12439,13 +12439,13 @@
         <v>361</v>
       </c>
       <c r="F104">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="G104">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H104">
-        <v>2.6</v>
+        <v>2.39</v>
       </c>
       <c r="I104">
         <v>1.07</v>
@@ -12460,10 +12460,10 @@
         <v>3</v>
       </c>
       <c r="M104">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="N104">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="O104">
         <v>1.44</v>
@@ -12543,13 +12543,13 @@
         <v>362</v>
       </c>
       <c r="F105">
-        <v>2.7</v>
+        <v>2.52</v>
       </c>
       <c r="G105">
-        <v>3.35</v>
+        <v>3.16</v>
       </c>
       <c r="H105">
-        <v>2.6</v>
+        <v>2.49</v>
       </c>
       <c r="I105">
         <v>1.07</v>
@@ -12564,10 +12564,10 @@
         <v>3</v>
       </c>
       <c r="M105">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="N105">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="O105">
         <v>1.44</v>
@@ -12647,13 +12647,13 @@
         <v>363</v>
       </c>
       <c r="F106">
-        <v>2.29</v>
+        <v>2.09</v>
       </c>
       <c r="G106">
-        <v>3.4</v>
+        <v>3.24</v>
       </c>
       <c r="H106">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="I106">
         <v>1.07</v>
@@ -12668,10 +12668,10 @@
         <v>3</v>
       </c>
       <c r="M106">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="N106">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="O106">
         <v>1.44</v>
@@ -12751,13 +12751,13 @@
         <v>364</v>
       </c>
       <c r="F107">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="G107">
-        <v>3.4</v>
+        <v>3.24</v>
       </c>
       <c r="H107">
-        <v>2.26</v>
+        <v>2.14</v>
       </c>
       <c r="I107">
         <v>1.07</v>
@@ -12772,10 +12772,10 @@
         <v>2.95</v>
       </c>
       <c r="M107">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="N107">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="O107">
         <v>1.44</v>
@@ -12855,13 +12855,13 @@
         <v>365</v>
       </c>
       <c r="F108">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="G108">
-        <v>3.76</v>
+        <v>3.6</v>
       </c>
       <c r="H108">
-        <v>4.72</v>
+        <v>4.32</v>
       </c>
       <c r="I108">
         <v>1.06</v>
@@ -12876,10 +12876,10 @@
         <v>3.4</v>
       </c>
       <c r="M108">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="N108">
-        <v>1.89</v>
+        <v>1.74</v>
       </c>
       <c r="O108">
         <v>1.4</v>
@@ -12959,13 +12959,13 @@
         <v>366</v>
       </c>
       <c r="F109">
-        <v>3.05</v>
+        <v>3.12</v>
       </c>
       <c r="G109">
-        <v>3.35</v>
+        <v>3.36</v>
       </c>
       <c r="H109">
-        <v>2.36</v>
+        <v>2.01</v>
       </c>
       <c r="I109">
         <v>1.07</v>
@@ -12980,10 +12980,10 @@
         <v>3</v>
       </c>
       <c r="M109">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="N109">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O109">
         <v>1.44</v>
@@ -13063,13 +13063,13 @@
         <v>367</v>
       </c>
       <c r="F110">
-        <v>2.14</v>
+        <v>1.96</v>
       </c>
       <c r="G110">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="H110">
-        <v>3.4</v>
+        <v>3.26</v>
       </c>
       <c r="I110">
         <v>1.02</v>
@@ -13084,10 +13084,10 @@
         <v>3.14</v>
       </c>
       <c r="M110">
-        <v>2.01</v>
+        <v>1.96</v>
       </c>
       <c r="N110">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="O110">
         <v>1.4</v>
@@ -13167,13 +13167,13 @@
         <v>368</v>
       </c>
       <c r="F111">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G111">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H111">
-        <v>2.11</v>
+        <v>1.87</v>
       </c>
       <c r="I111">
         <v>1.03</v>
@@ -13188,10 +13188,10 @@
         <v>2.93</v>
       </c>
       <c r="M111">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="N111">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="O111">
         <v>1.44</v>
@@ -13271,13 +13271,13 @@
         <v>369</v>
       </c>
       <c r="F112">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="G112">
-        <v>3.52</v>
+        <v>3.3</v>
       </c>
       <c r="H112">
-        <v>3.76</v>
+        <v>3.4</v>
       </c>
       <c r="I112">
         <v>1.07</v>
@@ -13292,10 +13292,10 @@
         <v>2.75</v>
       </c>
       <c r="M112">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="N112">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="O112">
         <v>1.44</v>
@@ -13375,13 +13375,13 @@
         <v>370</v>
       </c>
       <c r="F113">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="G113">
-        <v>4.02</v>
+        <v>4.17</v>
       </c>
       <c r="H113">
-        <v>4.5</v>
+        <v>5.35</v>
       </c>
       <c r="I113">
         <v>1.04</v>
@@ -13396,10 +13396,10 @@
         <v>4.1</v>
       </c>
       <c r="M113">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="N113">
-        <v>2.11</v>
+        <v>2.07</v>
       </c>
       <c r="O113">
         <v>1.33</v>
@@ -13479,13 +13479,13 @@
         <v>371</v>
       </c>
       <c r="F114">
-        <v>1.52</v>
+        <v>1.36</v>
       </c>
       <c r="G114">
-        <v>4.5</v>
+        <v>4.85</v>
       </c>
       <c r="H114">
-        <v>7.3</v>
+        <v>7.76</v>
       </c>
       <c r="I114">
         <v>1.05</v>
@@ -13500,10 +13500,10 @@
         <v>3.7</v>
       </c>
       <c r="M114">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="N114">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="O114">
         <v>1.36</v>
@@ -13583,13 +13583,13 @@
         <v>372</v>
       </c>
       <c r="F115">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="G115">
-        <v>3.58</v>
+        <v>3.28</v>
       </c>
       <c r="H115">
-        <v>2.91</v>
+        <v>2.62</v>
       </c>
       <c r="I115">
         <v>1.07</v>
@@ -13604,10 +13604,10 @@
         <v>3.3</v>
       </c>
       <c r="M115">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="N115">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="O115">
         <v>1.44</v>
@@ -13687,13 +13687,13 @@
         <v>373</v>
       </c>
       <c r="F116">
-        <v>10.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G116">
-        <v>6.25</v>
+        <v>5.56</v>
       </c>
       <c r="H116">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="I116">
         <v>1.02</v>
@@ -13791,13 +13791,13 @@
         <v>374</v>
       </c>
       <c r="F117">
-        <v>1.76</v>
+        <v>1.64</v>
       </c>
       <c r="G117">
-        <v>3.92</v>
+        <v>3.72</v>
       </c>
       <c r="H117">
-        <v>5.15</v>
+        <v>5.26</v>
       </c>
       <c r="I117">
         <v>1.07</v>
@@ -13812,10 +13812,10 @@
         <v>3.25</v>
       </c>
       <c r="M117">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="N117">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="O117">
         <v>1.44</v>
@@ -13898,10 +13898,10 @@
         <v>1.38</v>
       </c>
       <c r="G118">
-        <v>4.5</v>
+        <v>4.64</v>
       </c>
       <c r="H118">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="I118">
         <v>1.05</v>
@@ -13916,10 +13916,10 @@
         <v>3.25</v>
       </c>
       <c r="M118">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="N118">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="O118">
         <v>1.4</v>
@@ -13979,7 +13979,7 @@
         <v>3.25</v>
       </c>
       <c r="AH118">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="119" spans="1:34">
@@ -14002,10 +14002,10 @@
         <v>4</v>
       </c>
       <c r="G119">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H119">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="I119">
         <v>1.12</v>
@@ -14014,10 +14014,10 @@
         <v>5.5</v>
       </c>
       <c r="K119">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="L119">
-        <v>2.35</v>
+        <v>2.33</v>
       </c>
       <c r="M119">
         <v>2.55</v>
@@ -14103,13 +14103,13 @@
         <v>377</v>
       </c>
       <c r="F120">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="G120">
-        <v>4.06</v>
+        <v>3.74</v>
       </c>
       <c r="H120">
-        <v>5.85</v>
+        <v>5.74</v>
       </c>
       <c r="I120">
         <v>1.04</v>
@@ -14124,10 +14124,10 @@
         <v>3.5</v>
       </c>
       <c r="M120">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="N120">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="O120">
         <v>1.4</v>
@@ -14207,13 +14207,13 @@
         <v>378</v>
       </c>
       <c r="F121">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="G121">
+        <v>3.15</v>
+      </c>
+      <c r="H121">
         <v>3.25</v>
-      </c>
-      <c r="H121">
-        <v>3.1</v>
       </c>
       <c r="I121">
         <v>1.07</v>
@@ -14228,10 +14228,10 @@
         <v>3</v>
       </c>
       <c r="M121">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="N121">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="O121">
         <v>1.44</v>
@@ -14311,13 +14311,13 @@
         <v>379</v>
       </c>
       <c r="F122">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="G122">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H122">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I122">
         <v>1.07</v>
@@ -14332,10 +14332,10 @@
         <v>3</v>
       </c>
       <c r="M122">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="N122">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="O122">
         <v>1.44</v>
@@ -14383,7 +14383,7 @@
         <v>3.07</v>
       </c>
       <c r="AD122">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AE122">
         <v>1.32</v>
@@ -14415,13 +14415,13 @@
         <v>380</v>
       </c>
       <c r="F123">
-        <v>3.26</v>
+        <v>3.25</v>
       </c>
       <c r="G123">
-        <v>3.8</v>
+        <v>3.94</v>
       </c>
       <c r="H123">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="I123">
         <v>1.01</v>
@@ -14436,10 +14436,10 @@
         <v>4.05</v>
       </c>
       <c r="M123">
-        <v>1.76</v>
+        <v>1.58</v>
       </c>
       <c r="N123">
-        <v>2.02</v>
+        <v>2.4</v>
       </c>
       <c r="O123">
         <v>1.32</v>
@@ -14519,13 +14519,13 @@
         <v>381</v>
       </c>
       <c r="F124">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="G124">
-        <v>4</v>
+        <v>3.63</v>
       </c>
       <c r="H124">
-        <v>7.2</v>
+        <v>5.33</v>
       </c>
       <c r="I124">
         <v>1.07</v>
@@ -14540,10 +14540,10 @@
         <v>3</v>
       </c>
       <c r="M124">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="N124">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="O124">
         <v>1.4</v>
@@ -14623,13 +14623,13 @@
         <v>382</v>
       </c>
       <c r="F125">
-        <v>2.29</v>
+        <v>2.04</v>
       </c>
       <c r="G125">
-        <v>3.3</v>
+        <v>3.24</v>
       </c>
       <c r="H125">
-        <v>3.25</v>
+        <v>3.74</v>
       </c>
       <c r="I125">
         <v>1.07</v>
@@ -14644,10 +14644,10 @@
         <v>3</v>
       </c>
       <c r="M125">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="N125">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O125">
         <v>1.4</v>
@@ -14695,7 +14695,7 @@
         <v>1.82</v>
       </c>
       <c r="AD125">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE125">
         <v>1.31</v>
@@ -14727,13 +14727,13 @@
         <v>383</v>
       </c>
       <c r="F126">
-        <v>2.36</v>
+        <v>2.23</v>
       </c>
       <c r="G126">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="H126">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I126">
         <v>1.05</v>
@@ -14748,10 +14748,10 @@
         <v>2.75</v>
       </c>
       <c r="M126">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="N126">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="O126">
         <v>1.51</v>
@@ -14799,10 +14799,10 @@
         <v>3.05</v>
       </c>
       <c r="AD126">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE126">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AF126">
         <v>1.71</v>
@@ -14811,7 +14811,7 @@
         <v>2.09</v>
       </c>
       <c r="AH126">
-        <v>0</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="127" spans="1:34">
@@ -14903,10 +14903,10 @@
         <v>2.85</v>
       </c>
       <c r="AD127">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AE127">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AF127">
         <v>1.6</v>
@@ -14935,13 +14935,13 @@
         <v>385</v>
       </c>
       <c r="F128">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="G128">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="H128">
-        <v>2.85</v>
+        <v>2.6</v>
       </c>
       <c r="I128">
         <v>1.08</v>
@@ -14956,10 +14956,10 @@
         <v>3</v>
       </c>
       <c r="M128">
-        <v>2.09</v>
+        <v>2.4</v>
       </c>
       <c r="N128">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="O128">
         <v>1.44</v>
@@ -15039,13 +15039,13 @@
         <v>386</v>
       </c>
       <c r="F129">
-        <v>2.22</v>
+        <v>2.05</v>
       </c>
       <c r="G129">
-        <v>3.54</v>
+        <v>3.29</v>
       </c>
       <c r="H129">
-        <v>3.52</v>
+        <v>3.63</v>
       </c>
       <c r="I129">
         <v>1.07</v>
@@ -15060,7 +15060,7 @@
         <v>3.2</v>
       </c>
       <c r="M129">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="N129">
         <v>1.72</v>
@@ -15247,13 +15247,13 @@
         <v>387</v>
       </c>
       <c r="F131">
-        <v>2.21</v>
+        <v>2.2</v>
       </c>
       <c r="G131">
-        <v>3.55</v>
+        <v>3.78</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -15351,10 +15351,10 @@
         <v>388</v>
       </c>
       <c r="F132">
-        <v>4.3</v>
+        <v>4.26</v>
       </c>
       <c r="G132">
-        <v>3.7</v>
+        <v>3.96</v>
       </c>
       <c r="H132">
         <v>1.76</v>
@@ -15372,10 +15372,10 @@
         <v>0</v>
       </c>
       <c r="M132">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="N132">
-        <v>2.17</v>
+        <v>2.1</v>
       </c>
       <c r="O132">
         <v>0</v>
@@ -15455,13 +15455,13 @@
         <v>389</v>
       </c>
       <c r="F133">
-        <v>4.8</v>
+        <v>4.18</v>
       </c>
       <c r="G133">
-        <v>3.85</v>
+        <v>3.84</v>
       </c>
       <c r="H133">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
       <c r="I133">
         <v>0</v>
@@ -15476,10 +15476,10 @@
         <v>0</v>
       </c>
       <c r="M133">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="N133">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="O133">
         <v>0</v>
@@ -15663,13 +15663,13 @@
         <v>391</v>
       </c>
       <c r="F135">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="G135">
-        <v>4.4</v>
+        <v>4.15</v>
       </c>
       <c r="H135">
-        <v>6.6</v>
+        <v>6.71</v>
       </c>
       <c r="I135">
         <v>1.05</v>
@@ -15687,7 +15687,7 @@
         <v>1.8</v>
       </c>
       <c r="N135">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="O135">
         <v>1.36</v>
@@ -15767,13 +15767,13 @@
         <v>392</v>
       </c>
       <c r="F136">
-        <v>3.75</v>
+        <v>3.76</v>
       </c>
       <c r="G136">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H136">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="I136">
         <v>1.07</v>
@@ -15788,10 +15788,10 @@
         <v>3</v>
       </c>
       <c r="M136">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="N136">
-        <v>1.87</v>
+        <v>1.74</v>
       </c>
       <c r="O136">
         <v>1.4</v>
@@ -15842,7 +15842,7 @@
         <v>0</v>
       </c>
       <c r="AE136">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AF136">
         <v>1.78</v>
@@ -15871,10 +15871,10 @@
         <v>393</v>
       </c>
       <c r="F137">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="G137">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="H137">
         <v>2.6</v>
@@ -15892,10 +15892,10 @@
         <v>3.5</v>
       </c>
       <c r="M137">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="N137">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O137">
         <v>1.36</v>
@@ -15975,13 +15975,13 @@
         <v>394</v>
       </c>
       <c r="F138">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="G138">
-        <v>5.6</v>
+        <v>5.25</v>
       </c>
       <c r="H138">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="I138">
         <v>1.02</v>
@@ -16079,13 +16079,13 @@
         <v>395</v>
       </c>
       <c r="F139">
-        <v>4.28</v>
+        <v>3.81</v>
       </c>
       <c r="G139">
-        <v>3.94</v>
+        <v>3.42</v>
       </c>
       <c r="H139">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="I139">
         <v>1.04</v>
@@ -16100,10 +16100,10 @@
         <v>3.4</v>
       </c>
       <c r="M139">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="N139">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="O139">
         <v>1.4</v>
@@ -16183,13 +16183,13 @@
         <v>396</v>
       </c>
       <c r="F140">
-        <v>3.05</v>
+        <v>2.29</v>
       </c>
       <c r="G140">
-        <v>3.4</v>
+        <v>3.24</v>
       </c>
       <c r="H140">
-        <v>2.23</v>
+        <v>2.71</v>
       </c>
       <c r="I140">
         <v>1.06</v>
@@ -16207,7 +16207,7 @@
         <v>1.89</v>
       </c>
       <c r="N140">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="O140">
         <v>1.38</v>
@@ -16287,13 +16287,13 @@
         <v>397</v>
       </c>
       <c r="F141">
-        <v>2.95</v>
+        <v>2.86</v>
       </c>
       <c r="G141">
-        <v>3.45</v>
+        <v>3.34</v>
       </c>
       <c r="H141">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="I141">
         <v>1.04</v>
@@ -16308,10 +16308,10 @@
         <v>3.8</v>
       </c>
       <c r="M141">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="N141">
-        <v>2.09</v>
+        <v>2.15</v>
       </c>
       <c r="O141">
         <v>1.34</v>
@@ -16391,13 +16391,13 @@
         <v>398</v>
       </c>
       <c r="F142">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="G142">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="H142">
-        <v>2.85</v>
+        <v>2.7</v>
       </c>
       <c r="I142">
         <v>1.12</v>
@@ -16409,7 +16409,7 @@
         <v>1.53</v>
       </c>
       <c r="L142">
-        <v>2.35</v>
+        <v>2.43</v>
       </c>
       <c r="M142">
         <v>2.67</v>
@@ -16475,7 +16475,7 @@
         <v>2.87</v>
       </c>
       <c r="AH142">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="143" spans="1:34">
@@ -16495,13 +16495,13 @@
         <v>399</v>
       </c>
       <c r="F143">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="G143">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H143">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="I143">
         <v>1.09</v>
@@ -16516,10 +16516,10 @@
         <v>2.5</v>
       </c>
       <c r="M143">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="N143">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O143">
         <v>1.5</v>
@@ -16599,13 +16599,13 @@
         <v>400</v>
       </c>
       <c r="F144">
-        <v>1.72</v>
+        <v>1.59</v>
       </c>
       <c r="G144">
-        <v>4.38</v>
+        <v>4.39</v>
       </c>
       <c r="H144">
-        <v>4.86</v>
+        <v>4.77</v>
       </c>
       <c r="I144">
         <v>1.01</v>
@@ -16620,10 +16620,10 @@
         <v>5</v>
       </c>
       <c r="M144">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="N144">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="O144">
         <v>1.29</v>
@@ -16703,13 +16703,13 @@
         <v>401</v>
       </c>
       <c r="F145">
-        <v>3.1</v>
+        <v>2.97</v>
       </c>
       <c r="G145">
-        <v>3.24</v>
+        <v>2.97</v>
       </c>
       <c r="H145">
-        <v>2.6</v>
+        <v>2.53</v>
       </c>
       <c r="I145">
         <v>1.1</v>
@@ -16727,7 +16727,7 @@
         <v>2.5</v>
       </c>
       <c r="N145">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="O145">
         <v>1.57</v>
@@ -16807,13 +16807,13 @@
         <v>402</v>
       </c>
       <c r="F146">
-        <v>2.4</v>
+        <v>2.43</v>
       </c>
       <c r="G146">
-        <v>3.7</v>
+        <v>3.52</v>
       </c>
       <c r="H146">
-        <v>3.04</v>
+        <v>2.68</v>
       </c>
       <c r="I146">
         <v>1.05</v>
@@ -16828,10 +16828,10 @@
         <v>3.7</v>
       </c>
       <c r="M146">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="N146">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="O146">
         <v>1.33</v>
@@ -16911,13 +16911,13 @@
         <v>403</v>
       </c>
       <c r="F147">
-        <v>2.45</v>
+        <v>2.22</v>
       </c>
       <c r="G147">
-        <v>3.34</v>
+        <v>3.21</v>
       </c>
       <c r="H147">
-        <v>2.92</v>
+        <v>3.26</v>
       </c>
       <c r="I147">
         <v>1.06</v>
@@ -16932,7 +16932,7 @@
         <v>3.2</v>
       </c>
       <c r="M147">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="N147">
         <v>1.72</v>
@@ -17015,13 +17015,13 @@
         <v>404</v>
       </c>
       <c r="F148">
-        <v>2.85</v>
+        <v>2.78</v>
       </c>
       <c r="G148">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H148">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="I148">
         <v>1.09</v>
@@ -17036,10 +17036,10 @@
         <v>2.65</v>
       </c>
       <c r="M148">
-        <v>2.3</v>
+        <v>2.23</v>
       </c>
       <c r="N148">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="O148">
         <v>1.5</v>
@@ -17078,22 +17078,22 @@
         <v>2.94</v>
       </c>
       <c r="AA148">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AB148">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC148">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AD148">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AE148">
         <v>2</v>
       </c>
       <c r="AF148">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AG148">
         <v>0</v>
@@ -17119,13 +17119,13 @@
         <v>405</v>
       </c>
       <c r="F149">
-        <v>2.8</v>
+        <v>2.79</v>
       </c>
       <c r="G149">
-        <v>3.1</v>
+        <v>2.91</v>
       </c>
       <c r="H149">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="I149">
         <v>1.08</v>
@@ -17140,7 +17140,7 @@
         <v>2.7</v>
       </c>
       <c r="M149">
-        <v>2.4</v>
+        <v>2.41</v>
       </c>
       <c r="N149">
         <v>1.5</v>
@@ -17182,22 +17182,22 @@
         <v>2.83</v>
       </c>
       <c r="AA149">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AB149">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC149">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AD149">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE149">
         <v>1.9</v>
       </c>
       <c r="AF149">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AG149">
         <v>0</v>
@@ -17223,13 +17223,13 @@
         <v>406</v>
       </c>
       <c r="F150">
-        <v>2.44</v>
+        <v>2.33</v>
       </c>
       <c r="G150">
-        <v>3.1</v>
+        <v>2.91</v>
       </c>
       <c r="H150">
-        <v>3</v>
+        <v>2.91</v>
       </c>
       <c r="I150">
         <v>1.11</v>
@@ -17244,10 +17244,10 @@
         <v>2.5</v>
       </c>
       <c r="M150">
-        <v>2.45</v>
+        <v>2.44</v>
       </c>
       <c r="N150">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="O150">
         <v>1.5</v>
@@ -17295,13 +17295,13 @@
         <v>0</v>
       </c>
       <c r="AD150">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE150">
         <v>1.8</v>
       </c>
       <c r="AF150">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AG150">
         <v>0</v>
@@ -17327,13 +17327,13 @@
         <v>407</v>
       </c>
       <c r="F151">
-        <v>2.19</v>
+        <v>2.09</v>
       </c>
       <c r="G151">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="H151">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I151">
         <v>1.09</v>
@@ -17348,10 +17348,10 @@
         <v>2.5</v>
       </c>
       <c r="M151">
-        <v>2.4</v>
+        <v>2.39</v>
       </c>
       <c r="N151">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="O151">
         <v>1.5</v>
@@ -17399,13 +17399,13 @@
         <v>0</v>
       </c>
       <c r="AD151">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE151">
         <v>1.83</v>
       </c>
       <c r="AF151">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AG151">
         <v>0</v>
@@ -17434,10 +17434,10 @@
         <v>3.1</v>
       </c>
       <c r="G152">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H152">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="I152">
         <v>1.08</v>
@@ -17452,10 +17452,10 @@
         <v>2.7</v>
       </c>
       <c r="M152">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N152">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O152">
         <v>1.49</v>
@@ -17506,13 +17506,13 @@
         <v>0</v>
       </c>
       <c r="AE152">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AF152">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG152">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AH152">
         <v>0</v>
@@ -17535,13 +17535,13 @@
         <v>409</v>
       </c>
       <c r="F153">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="G153">
-        <v>3.05</v>
+        <v>2.99</v>
       </c>
       <c r="H153">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I153">
         <v>1.08</v>
@@ -17556,10 +17556,10 @@
         <v>2.62</v>
       </c>
       <c r="M153">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
       <c r="N153">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="O153">
         <v>1.51</v>
@@ -17607,13 +17607,13 @@
         <v>0</v>
       </c>
       <c r="AD153">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AE153">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AF153">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AG153">
         <v>0</v>
@@ -17639,13 +17639,13 @@
         <v>410</v>
       </c>
       <c r="F154">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="G154">
-        <v>3.88</v>
+        <v>3.62</v>
       </c>
       <c r="H154">
-        <v>5.85</v>
+        <v>6.76</v>
       </c>
       <c r="I154">
         <v>1.07</v>
@@ -17660,7 +17660,7 @@
         <v>2.87</v>
       </c>
       <c r="M154">
-        <v>2.09</v>
+        <v>2.16</v>
       </c>
       <c r="N154">
         <v>1.66</v>
@@ -17714,13 +17714,13 @@
         <v>0</v>
       </c>
       <c r="AE154">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF154">
         <v>1.9</v>
       </c>
       <c r="AG154">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AH154">
         <v>0</v>
@@ -17743,13 +17743,13 @@
         <v>411</v>
       </c>
       <c r="F155">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="G155">
-        <v>3.2</v>
+        <v>2.89</v>
       </c>
       <c r="H155">
-        <v>4.3</v>
+        <v>4.43</v>
       </c>
       <c r="I155">
         <v>1.11</v>
@@ -17758,10 +17758,10 @@
         <v>6</v>
       </c>
       <c r="K155">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="L155">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="M155">
         <v>2.47</v>
@@ -17815,13 +17815,13 @@
         <v>0</v>
       </c>
       <c r="AD155">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE155">
         <v>1.88</v>
       </c>
       <c r="AF155">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AG155">
         <v>0</v>
@@ -17847,13 +17847,13 @@
         <v>412</v>
       </c>
       <c r="F156">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="G156">
-        <v>3.65</v>
+        <v>3.56</v>
       </c>
       <c r="H156">
-        <v>5.4</v>
+        <v>5.09</v>
       </c>
       <c r="I156">
         <v>1.08</v>
@@ -17868,10 +17868,10 @@
         <v>2.75</v>
       </c>
       <c r="M156">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="N156">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="O156">
         <v>1.48</v>
@@ -17919,7 +17919,7 @@
         <v>3.84</v>
       </c>
       <c r="AD156">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE156">
         <v>1.85</v>
@@ -17928,10 +17928,10 @@
         <v>2.06</v>
       </c>
       <c r="AG156">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AH156">
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="157" spans="1:34">
@@ -17951,13 +17951,13 @@
         <v>413</v>
       </c>
       <c r="F157">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="G157">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H157">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="I157">
         <v>1.08</v>
@@ -17972,10 +17972,10 @@
         <v>3</v>
       </c>
       <c r="M157">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="N157">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="O157">
         <v>1.44</v>
@@ -18023,7 +18023,7 @@
         <v>2.32</v>
       </c>
       <c r="AD157">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AE157">
         <v>1.26</v>
@@ -18055,13 +18055,13 @@
         <v>414</v>
       </c>
       <c r="F158">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="G158">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="H158">
-        <v>3.95</v>
+        <v>3.66</v>
       </c>
       <c r="I158">
         <v>1.1</v>
@@ -18139,7 +18139,7 @@
         <v>3.4</v>
       </c>
       <c r="AH158">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="159" spans="1:34">
@@ -18159,13 +18159,13 @@
         <v>415</v>
       </c>
       <c r="F159">
-        <v>1.87</v>
+        <v>1.74</v>
       </c>
       <c r="G159">
-        <v>3.4</v>
+        <v>3.24</v>
       </c>
       <c r="H159">
-        <v>4.1</v>
+        <v>4.29</v>
       </c>
       <c r="I159">
         <v>1.07</v>
@@ -18180,10 +18180,10 @@
         <v>3</v>
       </c>
       <c r="M159">
-        <v>2.01</v>
+        <v>2.06</v>
       </c>
       <c r="N159">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="O159">
         <v>1.4</v>
@@ -18263,13 +18263,13 @@
         <v>416</v>
       </c>
       <c r="F160">
-        <v>3.35</v>
+        <v>3.57</v>
       </c>
       <c r="G160">
-        <v>3.45</v>
+        <v>3.28</v>
       </c>
       <c r="H160">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="I160">
         <v>1.04</v>
@@ -18284,7 +18284,7 @@
         <v>3.3</v>
       </c>
       <c r="M160">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="N160">
         <v>1.89</v>
@@ -18367,10 +18367,10 @@
         <v>417</v>
       </c>
       <c r="F161">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="G161">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="H161">
         <v>5.8</v>
@@ -18388,10 +18388,10 @@
         <v>4.5</v>
       </c>
       <c r="M161">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="N161">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O161">
         <v>1.29</v>
@@ -18471,13 +18471,13 @@
         <v>418</v>
       </c>
       <c r="F162">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="G162">
-        <v>4.14</v>
+        <v>3.42</v>
       </c>
       <c r="H162">
-        <v>5.35</v>
+        <v>4.19</v>
       </c>
       <c r="I162">
         <v>1.05</v>
@@ -18492,10 +18492,10 @@
         <v>3.5</v>
       </c>
       <c r="M162">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="N162">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="O162">
         <v>1.36</v>
@@ -18575,13 +18575,13 @@
         <v>419</v>
       </c>
       <c r="F163">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="G163">
-        <v>4.58</v>
+        <v>4.47</v>
       </c>
       <c r="H163">
-        <v>6.75</v>
+        <v>5.91</v>
       </c>
       <c r="I163">
         <v>1.02</v>
@@ -18596,10 +18596,10 @@
         <v>4</v>
       </c>
       <c r="M163">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="N163">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="O163">
         <v>1.33</v>
@@ -18703,7 +18703,7 @@
         <v>2.05</v>
       </c>
       <c r="N164">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="O164">
         <v>1.44</v>
@@ -18742,13 +18742,13 @@
         <v>0</v>
       </c>
       <c r="AA164">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="AB164">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AC164">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AD164">
         <v>1.27</v>
@@ -18783,13 +18783,13 @@
         <v>421</v>
       </c>
       <c r="F165">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="G165">
-        <v>4.04</v>
+        <v>3.94</v>
       </c>
       <c r="H165">
-        <v>4.34</v>
+        <v>4.33</v>
       </c>
       <c r="I165">
         <v>1.02</v>
@@ -18804,10 +18804,10 @@
         <v>4.35</v>
       </c>
       <c r="M165">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="N165">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="O165">
         <v>1.3</v>
@@ -18887,13 +18887,13 @@
         <v>422</v>
       </c>
       <c r="F166">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="G166">
-        <v>3.66</v>
+        <v>3.42</v>
       </c>
       <c r="H166">
-        <v>4.24</v>
+        <v>4.2</v>
       </c>
       <c r="I166">
         <v>1.05</v>
@@ -18908,10 +18908,10 @@
         <v>3.2</v>
       </c>
       <c r="M166">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="N166">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="O166">
         <v>1.44</v>
@@ -18991,13 +18991,13 @@
         <v>423</v>
       </c>
       <c r="F167">
-        <v>1.78</v>
+        <v>1.61</v>
       </c>
       <c r="G167">
-        <v>3.4</v>
+        <v>3.23</v>
       </c>
       <c r="H167">
-        <v>5.2</v>
+        <v>5.43</v>
       </c>
       <c r="I167">
         <v>1.09</v>
@@ -19012,10 +19012,10 @@
         <v>2.6</v>
       </c>
       <c r="M167">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N167">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="O167">
         <v>1.52</v>
@@ -19095,13 +19095,13 @@
         <v>424</v>
       </c>
       <c r="F168">
-        <v>4.54</v>
+        <v>4.51</v>
       </c>
       <c r="G168">
-        <v>3.86</v>
+        <v>3.61</v>
       </c>
       <c r="H168">
-        <v>1.86</v>
+        <v>1.76</v>
       </c>
       <c r="I168">
         <v>1.06</v>
@@ -19116,10 +19116,10 @@
         <v>3.4</v>
       </c>
       <c r="M168">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="N168">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="O168">
         <v>1.4</v>
@@ -19303,13 +19303,13 @@
         <v>426</v>
       </c>
       <c r="F170">
-        <v>3.1</v>
+        <v>3.38</v>
       </c>
       <c r="G170">
-        <v>3.2</v>
+        <v>3.32</v>
       </c>
       <c r="H170">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="I170">
         <v>1.08</v>
@@ -19324,10 +19324,10 @@
         <v>2.75</v>
       </c>
       <c r="M170">
-        <v>2.15</v>
+        <v>2.11</v>
       </c>
       <c r="N170">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="O170">
         <v>1.4</v>
@@ -19410,10 +19410,10 @@
         <v>1.22</v>
       </c>
       <c r="G171">
-        <v>6.45</v>
+        <v>6.98</v>
       </c>
       <c r="H171">
-        <v>13.5</v>
+        <v>9.98</v>
       </c>
       <c r="I171">
         <v>1.03</v>
@@ -19428,7 +19428,7 @@
         <v>4.2</v>
       </c>
       <c r="M171">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="N171">
         <v>2.25</v>
@@ -19615,13 +19615,13 @@
         <v>429</v>
       </c>
       <c r="F173">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="G173">
-        <v>4.1</v>
+        <v>4.16</v>
       </c>
       <c r="H173">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="I173">
         <v>0</v>
@@ -19719,13 +19719,13 @@
         <v>430</v>
       </c>
       <c r="F174">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="G174">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H174">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="I174">
         <v>1.05</v>
@@ -19740,10 +19740,10 @@
         <v>3.4</v>
       </c>
       <c r="M174">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="N174">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="O174">
         <v>1.4</v>
@@ -20031,13 +20031,13 @@
         <v>433</v>
       </c>
       <c r="F177">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="G177">
-        <v>4.1</v>
+        <v>4.26</v>
       </c>
       <c r="H177">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="I177">
         <v>1.06</v>
@@ -20052,10 +20052,10 @@
         <v>3.1</v>
       </c>
       <c r="M177">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="N177">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="O177">
         <v>1.39</v>
@@ -21071,31 +21071,31 @@
         <v>440</v>
       </c>
       <c r="F187">
-        <v>4.3</v>
+        <v>4.16</v>
       </c>
       <c r="G187">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H187">
+        <v>1.81</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+      <c r="M187">
+        <v>1.99</v>
+      </c>
+      <c r="N187">
         <v>1.76</v>
-      </c>
-      <c r="I187">
-        <v>0</v>
-      </c>
-      <c r="J187">
-        <v>0</v>
-      </c>
-      <c r="K187">
-        <v>0</v>
-      </c>
-      <c r="L187">
-        <v>0</v>
-      </c>
-      <c r="M187">
-        <v>1.91</v>
-      </c>
-      <c r="N187">
-        <v>1.8</v>
       </c>
       <c r="O187">
         <v>0</v>
@@ -21175,13 +21175,13 @@
         <v>441</v>
       </c>
       <c r="F188">
-        <v>2.75</v>
+        <v>2.68</v>
       </c>
       <c r="G188">
-        <v>3.3</v>
+        <v>3.41</v>
       </c>
       <c r="H188">
-        <v>2.48</v>
+        <v>2.25</v>
       </c>
       <c r="I188">
         <v>1.04</v>
@@ -21196,10 +21196,10 @@
         <v>3.6</v>
       </c>
       <c r="M188">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="N188">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O188">
         <v>1.36</v>
